--- a/medicine/Psychotrope/Organisation_interprofessionnelle_viti-vinicole_en_France/Organisation_interprofessionnelle_viti-vinicole_en_France.xlsx
+++ b/medicine/Psychotrope/Organisation_interprofessionnelle_viti-vinicole_en_France/Organisation_interprofessionnelle_viti-vinicole_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les organisations interprofessionnelles viti-vinicoles françaises ont été décrites dans un rapport du Ministère de l'Agriculture en 2010[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les organisations interprofessionnelles viti-vinicoles françaises ont été décrites dans un rapport du Ministère de l'Agriculture en 2010.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Organisations interprofessionnelles d’appellations d’origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Conseil interprofessionnel des vins d'Alsace
 Union interprofessionnelle des vins du Beaujolais
@@ -527,7 +541,7 @@
 Héberge le comité interprofessionnel des vins de Touraine et du Cœur Val de Loire
 Conseil interprofessionnel des vins de Provence
 Inter Rhône
-InterVins Sud Est (Bouches-du-Rhône, Vaucluse, Drôme, l’Ardèche, Rhône et Loire)[2]
+InterVins Sud Est (Bouches-du-Rhône, Vaucluse, Drôme, l’Ardèche, Rhône et Loire)
 Comité interprofessionnel des vins du sud-ouest</t>
         </is>
       </c>
@@ -556,7 +570,9 @@
           <t>Autres organisations interprofessionnelles viti-vinicoles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Comité national des interprofessions du vin à appellation d’origine contrôlée
 Association nationale interprofessionnelle des vins de table et des vins de pays
